--- a/biology/Zoologie/Formation_de_Shaximiao/Formation_de_Shaximiao.xlsx
+++ b/biology/Zoologie/Formation_de_Shaximiao/Formation_de_Shaximiao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation de Shaximiao est une formation géologique chinoise d'âge Jurassique moyen, soit il y a entre 174,7 ± 0,8 et 161,5 ± 1,0 Ma (millions d'années). Cette formation est célèbre pour les fossiles qu'elle renferme et, en particulier, ses dinosaures.
@@ -512,7 +524,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son principal affleurement se situe à 7 km au nord-est de la ville de Zigong dans le Sichuan autour de la petite ville de Dashanpu (sinogramme simplifié : 大山铺镇 ; sinogramme traditionnel : 大山鋪鎮 ; pinyin : Dàshānpū zhèn). 
 L'intérêt paléontologique de cette formation géologique a été prouvé dans les années 1970, avec la découverte du squelette d'un dinosaure carnivore lors de travaux d'une compagnie d'une compagnie chinoise de gas. Ce théropode fossile a été nommé en son honneur Gasosaurus.
@@ -545,12 +559,14 @@
           <t>Subdivisions géologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation de Dashanpu est subdivisée en 4 unités sédimentaires[1], de haut en bas :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation de Dashanpu est subdivisée en 4 unités sédimentaires, de haut en bas :
 la formation Shaximiao supérieure, appelée aussi formation Shangshaximiao ;
 la formation Shaximiao inférieure, appelée aussi formation Xiashaximiao ;la formation
-À noter que les deux formations Shaximiao, supérieure et inférieure, sont souvent regroupées sous le terme de « formations Shaximiao » qui sont datées du Bathonien et Callovien[1], soit un âge entre 168,2 ± 1,2 et 161,5 ± 1,0 Ma (millions d'années). C'est cet ensemble qui livre le plus de fossiles dans la formation de Dashanpu, les deux autres formations étant bien moins riches.
+À noter que les deux formations Shaximiao, supérieure et inférieure, sont souvent regroupées sous le terme de « formations Shaximiao » qui sont datées du Bathonien et Callovien, soit un âge entre 168,2 ± 1,2 et 161,5 ± 1,0 Ma (millions d'années). C'est cet ensemble qui livre le plus de fossiles dans la formation de Dashanpu, les deux autres formations étant bien moins riches.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Environnement de dépôt</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'environnement de dépôt de la formation de Shaximiao était celui d'une forêt luxuriante comme le prouvent les restes fréquents de bois silicifiés. Les restes d'animaux se sont vraisemblablement accumulés sous forme de lagerstätte dans un lac alimenté par de grandes rivières qui ont transporté pendant des millions d'années des cadavres d'animaux qui se sont ensuite sédimentés en parvenant dans le lac.
 </t>
@@ -610,49 +628,13 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dinosaures sont les fossiles dominants et, au sein de ce groupe les sauropodes, grands quadrupèdes herbivores, sont les plus nombreux[1]. D'autres dinosaures sont également courants comme les théropodes et les stégosaures. Plus de 8 000 os ou morceaux d'os ont été découverts pour un poids cumulé de près de 40 tonnes.
-En plus des dinosaures on trouve dans la formation de Shaximiao des fossiles de poissons, d'amphibiens, de tortues, de crocodiles et aussi de ptérosaures[1].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dinosaures sont les fossiles dominants et, au sein de ce groupe les sauropodes, grands quadrupèdes herbivores, sont les plus nombreux. D'autres dinosaures sont également courants comme les théropodes et les stégosaures. Plus de 8 000 os ou morceaux d'os ont été découverts pour un poids cumulé de près de 40 tonnes.
+En plus des dinosaures on trouve dans la formation de Shaximiao des fossiles de poissons, d'amphibiens, de tortues, de crocodiles et aussi de ptérosaures.  
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Formation_de_Shaximiao</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Formation_de_Shaximiao</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Principaux genres et espèces fossiles découverts</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sauroptérygiens
-Crocodyliformes
-Ptérosaures
-Dinosaures
-Ornithischiens
-Sauropodes
-Théropodes
-Tortues
-Thérapsides</t>
         </is>
       </c>
     </row>
